--- a/src/main/webapp/report/excel/Payment-ReportOther.xlsx
+++ b/src/main/webapp/report/excel/Payment-ReportOther.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4B3659E8-97FC-491B-BE5C-C9358FD7A8A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2DC08CE8-63F2-4E58-BBBD-22F28DE540AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="21405" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ลำดับที่</t>
   </si>
@@ -25,9 +25,6 @@
     <t>เลขที่ใบเสร็จ/ใบกำกับภาษี</t>
   </si>
   <si>
-    <t>เลขที่สัญญา</t>
-  </si>
-  <si>
     <t>ชำระโดย</t>
   </si>
   <si>
@@ -55,10 +52,16 @@
     <t>ประเภทบริการ</t>
   </si>
   <si>
-    <t>รวมตามหน่วยงานติดตามหนี้/หน่วยงานรับรายได</t>
-  </si>
-  <si>
-    <t>เลขที่ใบแจ้งค่าใช้บริการ/ชื่อบริการ/หมายเลขบริการเติมเงิน</t>
+    <t>เลขที่ลูกค้า</t>
+  </si>
+  <si>
+    <t>หน่วยงานรับรายได้</t>
+  </si>
+  <si>
+    <t>ชื่อบริการ</t>
+  </si>
+  <si>
+    <t>เจ้าหน้าที่รับชำระ (ชื่อ - นามสกุล)</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -520,11 +523,12 @@
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.25">
+    <row r="1" spans="1:14" ht="20.25">
       <c r="A1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -538,7 +542,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="E2" s="9"/>
@@ -547,37 +551,38 @@
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:13" ht="17.25" customHeight="1">
+    <row r="3" spans="1:14" ht="17.25" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="17.25" customHeight="1">
+    <row r="4" spans="1:14" ht="17.25" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:13" ht="17.25" customHeight="1">
+    <row r="5" spans="1:14" ht="17.25" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="38.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>12</v>
@@ -586,25 +591,28 @@
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -615,8 +623,8 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="E4:G4"/>
+    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="4.3307086614173231" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/src/main/webapp/report/excel/Payment-ReportOther.xlsx
+++ b/src/main/webapp/report/excel/Payment-ReportOther.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2DC08CE8-63F2-4E58-BBBD-22F28DE540AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76360725-C069-42BF-8B08-E464086242B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="21405" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ลำดับที่</t>
   </si>
@@ -61,7 +61,13 @@
     <t>ชื่อบริการ</t>
   </si>
   <si>
-    <t>เจ้าหน้าที่รับชำระ (ชื่อ - นามสกุล)</t>
+    <t>รหัสเจ้าหน้าที่รับชำระ</t>
+  </si>
+  <si>
+    <t>รหัสสถานที่รับขำระ</t>
+  </si>
+  <si>
+    <t>ชื่อสถานที่รับชำระ</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -147,6 +153,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:N2"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -522,56 +531,62 @@
     <col min="10" max="10" width="13.42578125" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" ht="20.25">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+    <row r="2" spans="1:16" ht="15.75">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+    <row r="4" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+    <row r="5" spans="1:16" ht="17.25" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1">
+    <row r="6" spans="1:16" ht="15" customHeight="1">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -608,11 +623,17 @@
       <c r="L7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -624,7 +645,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K2:P2"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="4.3307086614173231" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>

--- a/src/main/webapp/report/excel/Payment-ReportOther.xlsx
+++ b/src/main/webapp/report/excel/Payment-ReportOther.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76360725-C069-42BF-8B08-E464086242B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="21405" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="21405" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ลำดับที่</t>
   </si>
@@ -68,17 +67,20 @@
   </si>
   <si>
     <t>ชื่อสถานที่รับชำระ</t>
+  </si>
+  <si>
+    <t>ชื่อผู้ซื้อสินค้า/ผู้รับบริการ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -105,6 +107,12 @@
       <color theme="1"/>
       <name val="TH SarabunPSK"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -173,9 +181,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -191,7 +202,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -266,23 +277,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -318,23 +312,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,34 +487,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="8" width="28.125" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+    <col min="12" max="12" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25">
+    <row r="1" spans="1:17" ht="20.25">
       <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
@@ -552,41 +530,42 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:17" ht="15">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="K2" s="11"/>
+      <c r="H2" s="10"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="17.25" customHeight="1">
+    <row r="3" spans="1:17" ht="17.25" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="17.25" customHeight="1">
+    <row r="4" spans="1:17" ht="17.25" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
-    <row r="5" spans="1:16" ht="17.25" customHeight="1">
+    <row r="5" spans="1:17" ht="17.25" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,40 +578,43 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -640,12 +622,12 @@
   <mergeCells count="8">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="L2:Q2"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="4.3307086614173231" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -653,24 +635,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/webapp/report/excel/Payment-ReportOther.xlsx
+++ b/src/main/webapp/report/excel/Payment-ReportOther.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2445" windowWidth="21405" windowHeight="5385"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ลำดับที่</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>ชื่อผู้ซื้อสินค้า/ผู้รับบริการ</t>
+  </si>
+  <si>
+    <t>รหัสบัญชีบริการ</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -165,10 +168,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -181,8 +184,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -244,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +282,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,84 +491,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="6" width="26.375" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="28.125" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="14.375" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="20.875" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" ht="20.25">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="5"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:17" ht="15">
+    <row r="2" spans="1:18" ht="15.75">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="L2" s="11"/>
+      <c r="I2" s="10"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1">
+    <row r="3" spans="1:18" ht="17.25" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+    <row r="4" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+    <row r="5" spans="1:18" ht="17.25" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+    <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,56 +584,59 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="4.3307086614173231" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -640,7 +649,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -652,7 +661,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
